--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:07:51+00:00</t>
+    <t>2025-10-22T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -439,7 +439,7 @@
     <t>Practitioner.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -514,7 +514,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -557,7 +557,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -847,7 +847,7 @@
     <t>Practitioner.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1042,7 +1042,7 @@
     <t>assemblyOrder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {humanname-assembly-order|5.3.0-ballot-tc1}
+    <t xml:space="preserve">Extension {humanname-assembly-order|5.2.0}
 </t>
   </si>
   <si>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:21:04+00:00</t>
+    <t>2025-11-06T10:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:11:54+00:00</t>
+    <t>2025-11-07T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:50:39+00:00</t>
+    <t>2025-11-07T17:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:06:48+00:00</t>
+    <t>2025-11-07T17:36:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:36:51+00:00</t>
+    <t>2025-11-29T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T07:55:08+00:00</t>
+    <t>2025-12-05T17:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4183" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4183" uniqueCount="558">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T17:11:23+00:00</t>
+    <t>2025-12-09T22:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Practitioner</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Practitioner|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -468,6 +468,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Practitioner.meta.security</t>
   </si>
   <si>
@@ -633,7 +636,7 @@
     <t>specialty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -753,7 +756,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-identifier-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -997,7 +1000,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1177,7 +1180,7 @@
     <t>Civilités des personnes physiques</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J245-Civilite-CISIS/FHIR/JDV-J245-Civilite-CISIS|20230331120000</t>
   </si>
   <si>
     <t>HumanName.prefix</t>
@@ -1204,7 +1207,7 @@
     <t>Civilités d'exercice d'un professionnel du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J79-CiviliteExercice-RASS/FHIR/JDV-J79-CiviliteExercice-RASS|20200424120000</t>
   </si>
   <si>
     <t>HumanName.suffix</t>
@@ -1240,7 +1243,7 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1268,7 +1271,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1444,7 +1447,7 @@
     <t>Specific qualification the practitioner has to provide a service.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-2.7-0360|0360</t>
   </si>
   <si>
     <t>./Qualifications.Value</t>
@@ -1552,13 +1555,13 @@
     <t>degreeType</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J81-TypeDiplome-RASS/FHIR/JDV-J81-TypeDiplome-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J81-TypeDiplome-RASS/FHIR/JDV-J81-TypeDiplome-RASS|20230526120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:degree.code.coding:degree</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J105-EnsembleDiplome-RASS/FHIR/JDV-J105-EnsembleDiplome-RASS|20250828120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:degree.code.text</t>
@@ -1636,7 +1639,7 @@
     <t>Catégorie professionnelle indiquant si le professionnel exerce sa profession en tant que Militaire, Civil, Fonctionnaire ou Etudiant (categorieProfessionnelle).</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J89-CategorieProfessionnelle-RASS/FHIR/JDV-J89-CategorieProfessionnelle-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J89-CategorieProfessionnelle-RASS/FHIR/JDV-J89-CategorieProfessionnelle-RASS|20240329120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:exercicePro.code.coding:profession</t>
@@ -1648,7 +1651,7 @@
     <t>Profession exercée : de santé (professionSante) TRE G15, du social (professionSocial) TRE R94, à usage de titre professionnel (usagerTitre) TRE R95, ou autre profession (autreProfession) TRE R291</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J106-EnsembleProfession-RASS/FHIR/JDV-J106-EnsembleProfession-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J106-EnsembleProfession-RASS/FHIR/JDV-J106-EnsembleProfession-RASS|20250328120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:exercicePro.code.text</t>
@@ -1703,7 +1706,7 @@
 typeSavoirFaire</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J91-TypeSavoirFaire-RASS/FHIR/JDV-J91-TypeSavoirFaire-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J91-TypeSavoirFaire-RASS/FHIR/JDV-J91-TypeSavoirFaire-RASS|20251016120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:savoirFaire.code.coding:savoirFaire</t>
@@ -1712,7 +1715,7 @@
     <t>Compétence acquise par le professionnel (competence) R39 ou Compétence exclusive exercée par le professionnel à titre exclusif (competenceExclusive) R40 ou Diplôme d'études spécialisées complémentaires (DESC)DESCnonQualifian R42 ou Capacité (savoir-faire)de médecine (capaciteSavoirFaire) R43 ou Qualification de praticien adjoint contractuel (qualificationPAC) R44 ou Fonction qualifiée (Synonyme: fonctionQualifiee) R45 ou Droit d'exercice complémentaire (Synonyme: droitExerciceComplementaire) R97 ou Orientation particulière (Synonyme: orientationParticuliere) G13 ou Activité ponctuelle du professionnel de type expertise (attributionParticuliere) G13.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J107-EnsembleSavoirFaire-RASS/FHIR/JDV-J107-EnsembleSavoirFaire-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J107-EnsembleSavoirFaire-RASS/FHIR/JDV-J107-EnsembleSavoirFaire-RASS|20241025120000</t>
   </si>
   <si>
     <t>Practitioner.qualification:savoirFaire.code.text</t>
@@ -2077,7 +2080,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="68.5078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2092,7 +2095,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.42578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="106.95703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3300,7 +3303,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -3368,10 +3371,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3394,16 +3397,16 @@
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3429,13 +3432,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3453,7 +3456,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3482,10 +3485,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3508,16 +3511,16 @@
         <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3543,13 +3546,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3567,7 +3570,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3596,10 +3599,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3625,13 +3628,13 @@
         <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3681,7 +3684,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3710,10 +3713,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3736,16 +3739,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3771,13 +3774,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3795,7 +3798,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3824,14 +3827,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3850,16 +3853,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3909,7 +3912,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3927,7 +3930,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3938,14 +3941,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3964,16 +3967,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4023,7 +4026,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4041,7 +4044,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -4052,10 +4055,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4081,10 +4084,10 @@
         <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4133,7 +4136,7 @@
         <v>116</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4162,13 +4165,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -4190,13 +4193,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4247,7 +4250,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4256,7 +4259,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>118</v>
@@ -4276,10 +4279,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4305,16 +4308,16 @@
         <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4363,7 +4366,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4381,7 +4384,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4392,10 +4395,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4418,17 +4421,17 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4465,10 +4468,10 @@
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>78</v>
@@ -4477,7 +4480,7 @@
         <v>116</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4492,24 +4495,24 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4618,10 +4621,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4732,10 +4735,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4758,19 +4761,19 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -4795,13 +4798,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4819,7 +4822,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4834,10 +4837,10 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4848,10 +4851,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4874,19 +4877,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4911,11 +4914,11 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4933,7 +4936,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4948,10 +4951,10 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4962,10 +4965,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4991,16 +4994,16 @@
         <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -5013,7 +5016,7 @@
         <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>78</v>
@@ -5049,7 +5052,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5064,13 +5067,13 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5078,10 +5081,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5107,13 +5110,13 @@
         <v>103</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5127,7 +5130,7 @@
         <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>78</v>
@@ -5163,7 +5166,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5178,13 +5181,13 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5192,10 +5195,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5218,13 +5221,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5275,7 +5278,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5290,13 +5293,13 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5304,10 +5307,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5330,16 +5333,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5389,7 +5392,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5404,13 +5407,13 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5418,13 +5421,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>78</v>
@@ -5446,17 +5449,17 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -5505,7 +5508,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5520,24 +5523,24 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5646,10 +5649,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5760,10 +5763,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5786,19 +5789,19 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5823,13 +5826,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5847,7 +5850,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5862,10 +5865,10 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5876,10 +5879,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5902,19 +5905,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5924,7 +5927,7 @@
         <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>78</v>
@@ -5939,11 +5942,11 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5961,7 +5964,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5976,10 +5979,10 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>78</v>
@@ -5990,10 +5993,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6019,16 +6022,16 @@
         <v>131</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6038,10 +6041,10 @@
         <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>78</v>
@@ -6077,7 +6080,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6092,13 +6095,13 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6106,10 +6109,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6135,13 +6138,13 @@
         <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6155,7 +6158,7 @@
         <v>78</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>78</v>
@@ -6191,7 +6194,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6206,13 +6209,13 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6220,10 +6223,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6246,13 +6249,13 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6303,7 +6306,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6318,13 +6321,13 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6332,10 +6335,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6358,16 +6361,16 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6417,7 +6420,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6432,13 +6435,13 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6446,13 +6449,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>78</v>
@@ -6474,17 +6477,17 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6533,7 +6536,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6548,24 +6551,24 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6674,10 +6677,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6788,10 +6791,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6814,19 +6817,19 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6851,13 +6854,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6875,7 +6878,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6890,10 +6893,10 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6904,10 +6907,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6930,19 +6933,19 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6952,7 +6955,7 @@
         <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>78</v>
@@ -6967,11 +6970,11 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -6989,7 +6992,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7004,10 +7007,10 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -7018,10 +7021,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7047,16 +7050,16 @@
         <v>131</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7066,10 +7069,10 @@
         <v>78</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>78</v>
@@ -7105,7 +7108,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7120,13 +7123,13 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7134,10 +7137,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7163,13 +7166,13 @@
         <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7183,7 +7186,7 @@
         <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>78</v>
@@ -7219,7 +7222,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7234,13 +7237,13 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7248,10 +7251,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7274,13 +7277,13 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7331,7 +7334,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7346,13 +7349,13 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7360,10 +7363,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7386,16 +7389,16 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7445,7 +7448,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7460,13 +7463,13 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7474,10 +7477,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7500,70 +7503,70 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q48" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q48" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7581,21 +7584,21 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7618,19 +7621,19 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7679,7 +7682,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7694,13 +7697,13 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7708,10 +7711,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7820,10 +7823,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7934,13 +7937,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B52" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B52" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="C52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>78</v>
@@ -7962,13 +7965,13 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8048,10 +8051,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8074,19 +8077,19 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -8111,13 +8114,13 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8135,7 +8138,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8150,13 +8153,13 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8164,10 +8167,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8193,16 +8196,16 @@
         <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8251,7 +8254,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8266,10 +8269,10 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -8280,14 +8283,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8309,13 +8312,13 @@
         <v>103</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8365,7 +8368,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8380,13 +8383,13 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8394,14 +8397,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8423,13 +8426,13 @@
         <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8479,7 +8482,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8494,13 +8497,13 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8508,10 +8511,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8537,10 +8540,10 @@
         <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8567,13 +8570,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8591,7 +8594,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -8606,13 +8609,13 @@
         <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8620,10 +8623,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8649,10 +8652,10 @@
         <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8679,13 +8682,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8703,7 +8706,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -8718,10 +8721,10 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>78</v>
@@ -8732,10 +8735,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8758,17 +8761,17 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8817,7 +8820,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8832,13 +8835,13 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8846,10 +8849,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8872,19 +8875,19 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>78</v>
@@ -8933,7 +8936,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -8948,13 +8951,13 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8962,10 +8965,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8988,19 +8991,19 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9049,7 +9052,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9064,13 +9067,13 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9078,10 +9081,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9104,17 +9107,17 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9139,13 +9142,13 @@
         <v>78</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9163,7 +9166,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9178,13 +9181,13 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9192,10 +9195,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9218,17 +9221,17 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9277,7 +9280,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9292,13 +9295,13 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9306,10 +9309,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9332,17 +9335,17 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9391,7 +9394,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9409,10 +9412,10 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9420,10 +9423,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9446,13 +9449,13 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9491,7 +9494,7 @@
         <v>78</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
@@ -9501,7 +9504,7 @@
         <v>116</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9516,13 +9519,13 @@
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9530,10 +9533,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9642,10 +9645,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9756,14 +9759,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9785,16 +9788,16 @@
         <v>110</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9843,7 +9846,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9861,7 +9864,7 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
@@ -9872,10 +9875,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9898,17 +9901,17 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -9957,7 +9960,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9975,7 +9978,7 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
@@ -9986,10 +9989,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10012,13 +10015,13 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10045,13 +10048,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10069,7 +10072,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>89</v>
@@ -10087,10 +10090,10 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10098,10 +10101,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10124,17 +10127,17 @@
         <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10183,7 +10186,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10201,10 +10204,10 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10212,10 +10215,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10238,13 +10241,13 @@
         <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10295,7 +10298,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10313,7 +10316,7 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>78</v>
@@ -10324,13 +10327,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>78</v>
@@ -10352,13 +10355,13 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10409,7 +10412,7 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10424,13 +10427,13 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10438,10 +10441,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10550,10 +10553,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10664,14 +10667,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10693,16 +10696,16 @@
         <v>110</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>78</v>
@@ -10751,7 +10754,7 @@
         <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -10769,7 +10772,7 @@
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>78</v>
@@ -10780,10 +10783,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10806,17 +10809,17 @@
         <v>78</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>78</v>
@@ -10865,7 +10868,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10883,7 +10886,7 @@
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>78</v>
@@ -10894,10 +10897,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10920,13 +10923,13 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10953,13 +10956,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -10977,7 +10980,7 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>89</v>
@@ -10995,10 +10998,10 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11006,10 +11009,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11118,10 +11121,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11232,10 +11235,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11258,19 +11261,19 @@
         <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>78</v>
@@ -11314,10 +11317,10 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11332,10 +11335,10 @@
         <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>78</v>
@@ -11346,13 +11349,13 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>78</v>
@@ -11374,19 +11377,19 @@
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>78</v>
@@ -11411,11 +11414,11 @@
         <v>78</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>78</v>
@@ -11433,7 +11436,7 @@
         <v>78</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11448,10 +11451,10 @@
         <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>78</v>
@@ -11462,13 +11465,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>78</v>
@@ -11490,19 +11493,19 @@
         <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>78</v>
@@ -11527,11 +11530,11 @@
         <v>78</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>78</v>
@@ -11549,7 +11552,7 @@
         <v>78</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -11564,10 +11567,10 @@
         <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>78</v>
@@ -11578,10 +11581,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11607,16 +11610,16 @@
         <v>103</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>78</v>
@@ -11665,7 +11668,7 @@
         <v>78</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -11680,10 +11683,10 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>78</v>
@@ -11694,10 +11697,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11720,17 +11723,17 @@
         <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>78</v>
@@ -11779,7 +11782,7 @@
         <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -11797,10 +11800,10 @@
         <v>78</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>78</v>
@@ -11808,10 +11811,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11834,13 +11837,13 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11891,7 +11894,7 @@
         <v>78</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -11909,7 +11912,7 @@
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>78</v>
@@ -11920,13 +11923,13 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>78</v>
@@ -11948,13 +11951,13 @@
         <v>78</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12005,7 +12008,7 @@
         <v>78</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12020,13 +12023,13 @@
         <v>101</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>78</v>
@@ -12034,10 +12037,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12146,10 +12149,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12260,14 +12263,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12289,16 +12292,16 @@
         <v>110</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>78</v>
@@ -12347,7 +12350,7 @@
         <v>78</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12365,7 +12368,7 @@
         <v>78</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>78</v>
@@ -12376,10 +12379,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12402,17 +12405,17 @@
         <v>78</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>78</v>
@@ -12461,7 +12464,7 @@
         <v>78</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -12479,7 +12482,7 @@
         <v>78</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>78</v>
@@ -12490,10 +12493,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12516,13 +12519,13 @@
         <v>78</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12549,13 +12552,13 @@
         <v>78</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>78</v>
@@ -12573,7 +12576,7 @@
         <v>78</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>89</v>
@@ -12591,10 +12594,10 @@
         <v>78</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>78</v>
@@ -12602,10 +12605,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12714,10 +12717,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12828,10 +12831,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12854,19 +12857,19 @@
         <v>90</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>78</v>
@@ -12910,10 +12913,10 @@
         <v>78</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -12928,10 +12931,10 @@
         <v>101</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>78</v>
@@ -12942,13 +12945,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>78</v>
@@ -12970,19 +12973,19 @@
         <v>90</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>78</v>
@@ -13007,11 +13010,11 @@
         <v>78</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y96" s="2"/>
       <c r="Z96" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>78</v>
@@ -13029,7 +13032,7 @@
         <v>78</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13044,10 +13047,10 @@
         <v>101</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>78</v>
@@ -13058,13 +13061,13 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>78</v>
@@ -13086,19 +13089,19 @@
         <v>90</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>78</v>
@@ -13123,11 +13126,11 @@
         <v>78</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y97" s="2"/>
       <c r="Z97" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>78</v>
@@ -13145,7 +13148,7 @@
         <v>78</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13160,10 +13163,10 @@
         <v>101</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>78</v>
@@ -13174,10 +13177,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13203,16 +13206,16 @@
         <v>103</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>78</v>
@@ -13261,7 +13264,7 @@
         <v>78</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13276,10 +13279,10 @@
         <v>101</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>78</v>
@@ -13290,10 +13293,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13316,17 +13319,17 @@
         <v>78</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>78</v>
@@ -13375,7 +13378,7 @@
         <v>78</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13393,10 +13396,10 @@
         <v>78</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>78</v>
@@ -13404,10 +13407,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13430,13 +13433,13 @@
         <v>78</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13487,7 +13490,7 @@
         <v>78</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -13505,7 +13508,7 @@
         <v>78</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>78</v>
@@ -13516,13 +13519,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>78</v>
@@ -13544,13 +13547,13 @@
         <v>78</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13601,7 +13604,7 @@
         <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -13616,13 +13619,13 @@
         <v>101</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>78</v>
@@ -13630,10 +13633,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13742,10 +13745,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13856,14 +13859,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -13885,16 +13888,16 @@
         <v>110</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N104" t="s" s="2">
         <v>113</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>78</v>
@@ -13943,7 +13946,7 @@
         <v>78</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -13961,7 +13964,7 @@
         <v>78</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>78</v>
@@ -13972,10 +13975,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13998,17 +14001,17 @@
         <v>78</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>78</v>
@@ -14057,7 +14060,7 @@
         <v>78</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14075,7 +14078,7 @@
         <v>78</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>78</v>
@@ -14086,10 +14089,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14112,13 +14115,13 @@
         <v>78</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14145,13 +14148,13 @@
         <v>78</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>78</v>
@@ -14169,7 +14172,7 @@
         <v>78</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>89</v>
@@ -14187,10 +14190,10 @@
         <v>78</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>78</v>
@@ -14198,10 +14201,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14310,10 +14313,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14424,10 +14427,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14450,19 +14453,19 @@
         <v>90</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>78</v>
@@ -14506,10 +14509,10 @@
         <v>78</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -14524,10 +14527,10 @@
         <v>101</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>78</v>
@@ -14538,13 +14541,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>78</v>
@@ -14566,19 +14569,19 @@
         <v>90</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>78</v>
@@ -14603,11 +14606,11 @@
         <v>78</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y110" s="2"/>
       <c r="Z110" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>78</v>
@@ -14625,7 +14628,7 @@
         <v>78</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -14640,10 +14643,10 @@
         <v>101</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>78</v>
@@ -14654,13 +14657,13 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>78</v>
@@ -14682,19 +14685,19 @@
         <v>90</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>78</v>
@@ -14719,11 +14722,11 @@
         <v>78</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y111" s="2"/>
       <c r="Z111" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>78</v>
@@ -14741,7 +14744,7 @@
         <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -14756,10 +14759,10 @@
         <v>101</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>78</v>
@@ -14770,10 +14773,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14799,16 +14802,16 @@
         <v>103</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>78</v>
@@ -14857,7 +14860,7 @@
         <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -14872,10 +14875,10 @@
         <v>101</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>78</v>
@@ -14886,10 +14889,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14912,17 +14915,17 @@
         <v>78</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>78</v>
@@ -14971,7 +14974,7 @@
         <v>78</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -14989,10 +14992,10 @@
         <v>78</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>78</v>
@@ -15000,10 +15003,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15026,13 +15029,13 @@
         <v>78</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -15083,7 +15086,7 @@
         <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15101,7 +15104,7 @@
         <v>78</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>78</v>
@@ -15112,10 +15115,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15138,19 +15141,19 @@
         <v>78</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>78</v>
@@ -15175,13 +15178,13 @@
         <v>78</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>78</v>
@@ -15199,7 +15202,7 @@
         <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15214,13 +15217,13 @@
         <v>101</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>78</v>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T22:51:13+00:00</t>
+    <t>2025-12-17T08:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T17:17:04+00:00</t>
+    <t>2025-12-29T08:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:10:54+00:00</t>
+    <t>2026-01-09T10:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:08:27+00:00</t>
+    <t>2026-01-12T10:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:02:26+00:00</t>
+    <t>2026-01-21T08:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:47:55+00:00</t>
+    <t>2026-01-28T09:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T09:35:28+00:00</t>
+    <t>2026-01-28T10:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>
@@ -468,7 +468,7 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Practitioner.meta.security</t>
@@ -636,7 +636,7 @@
     <t>specialty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-specialty|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -756,7 +756,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-identifier-type|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-identifier-type|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1000,7 +1000,7 @@
     <t>Practitioner.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.2.0-ballot}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1243,7 +1243,7 @@
     <t>Practitioner.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1271,7 +1271,7 @@
     <t>Practitioner.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -2080,7 +2080,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-practitioner.xlsx
+++ b/main/ig/StructureDefinition-fr-core-practitioner.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
